--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F735F-23E4-9047-A750-0242096F1C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0BFAE-643F-CD49-8290-3252BA6B77B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="4140" yWindow="1480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>我</t>
   </si>
@@ -87,15 +87,6 @@
     <t>PartOfSpeech</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>第一次造句</t>
-  </si>
-  <si>
-    <t>非第一次造句</t>
-  </si>
-  <si>
     <t>CardID1</t>
   </si>
   <si>
@@ -112,6 +103,9 @@
   </si>
   <si>
     <t>Dialogue</t>
+  </si>
+  <si>
+    <t>StatusID</t>
   </si>
 </sst>
 </file>
@@ -471,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DECA0F6-EBD3-FC42-B032-711010D36FB6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -577,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,22 +583,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -617,8 +611,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -637,8 +631,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -668,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.2">

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0BFAE-643F-CD49-8290-3252BA6B77B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0E6BA-AE7F-6847-880A-DC3EC1B670B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
   <si>
     <t>我</t>
   </si>
@@ -72,9 +72,6 @@
     <t>[3,4]</t>
   </si>
   <si>
-    <t>這裡是哪裡？「我」醒了過來。發現在自己被困在一間「密室」。我摸著自己的口袋，沒有找到手機，無法對外聯繫。但發現一張詞卡「檢視」。這是做什麼用的？（獲得「密室」、「我」、「檢視」）</t>
-  </si>
-  <si>
     <t>我檢視這密室。看見密室內有一扇「門」與一張「桌子」。沒有別的東西了。</t>
   </si>
   <si>
@@ -105,17 +102,423 @@
     <t>Dialogue</t>
   </si>
   <si>
-    <t>StatusID</t>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>這裡是哪裡？「我」醒了過來。發現在自己被困在一間「密室」。我摸著自己的口袋，沒有找到手機，無法對外聯繫。但發現一張藍色卡片「檢視」。這是做什麼用的？（獲得「密室」、「我」、「檢視」）</t>
+  </si>
+  <si>
+    <t>桌子原本在密室的中央，我將桌子移至大門下面。</t>
+  </si>
+  <si>
+    <t>桌子已經移至大門之下了。</t>
+  </si>
+  <si>
+    <t>我看見桌子在大門之下，形成了「開」這個字。（獲得「開」）</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>桌面是可以活動的。我將桌面掀開。看見裡面有兩張卡片，一黃一藍，「角落」、「爬上」。（獲得「角落」、「爬上」）</t>
+  </si>
+  <si>
+    <t>我檢視著密室的角落。什麼也沒有。</t>
+  </si>
+  <si>
+    <t>我將桌子移至密室的角落。</t>
+  </si>
+  <si>
+    <t>我已經將桌子移至密室角落。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。我看見頭頂上就是「天花板」。（獲得「天花板」）</t>
+  </si>
+  <si>
+    <t>我爬上桌子。頭頂上是天花板。</t>
+  </si>
+  <si>
+    <t>角落上方的天花板太高，我摸不到。</t>
+  </si>
+  <si>
+    <t>我檢視這方塊。方塊中間有一個貫穿方塊的方洞。沒有其他特別的地方了。方塊大概有一顆頭這麼大。</t>
+  </si>
+  <si>
+    <t>我將方塊移至大門前。</t>
+  </si>
+  <si>
+    <t>我檢視大門。方塊在大門之下形成了「問」這個字。</t>
+  </si>
+  <si>
+    <t>我檢視黑衣人。穿著黑色大衣，大概有190公分高。</t>
+  </si>
+  <si>
+    <t>黑衣人似乎不聽從我的指令。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上桌子。</t>
+  </si>
+  <si>
+    <t>黑衣人在天花板上。他拉了我一把，我成功爬上了天花板。我和他穿越通道，遠方越來越明亮。我們來到洞穴出口。遠方是一座城市。我打算通報警察這件事。（恭喜通關）</t>
+  </si>
+  <si>
+    <t>黑衣人檢視門。門在他面前就沒有顯得這麼高大。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視桌子。他回想起小木屋內也曾有一張一模一樣的桌子。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視天花板。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視方塊。他回想起小木屋的小書櫃，裡面有許多本小說。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視天花板。天花板由許多木板拼成，很像是小木屋的建材。</t>
+  </si>
+  <si>
+    <t>角落</t>
+  </si>
+  <si>
+    <t>爬上</t>
+  </si>
+  <si>
+    <t>天花板</t>
+  </si>
+  <si>
+    <t>方塊</t>
+  </si>
+  <si>
+    <t>黑衣人檢視密室。他剛才似乎也被困在一間密室內，也是沒有什麼東西。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視角落。他也沒看到什麼東西。</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>黑衣人</t>
+  </si>
+  <si>
+    <t>[7,8]</t>
+  </si>
+  <si>
+    <t>我已經開啟過桌面。在裡面發現兩張卡片「角落」、「爬上」。沒有其他東西了。</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>我滑開門上方的天花板，一架梯子掉了下來。</t>
+  </si>
+  <si>
+    <t>角落上方的天花板已經被掀開。</t>
+  </si>
+  <si>
+    <t>門上方的天花板已經被掀開。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上門上方的天花板。除了我剛才找到的方塊，他在裡面沒有找到其他東西了。</t>
+  </si>
+  <si>
+    <t>我檢視天花板。天花板是由一塊一塊木板拼湊而成。</t>
+  </si>
+  <si>
+    <t>我檢視這扇門。是一扇很大的門。沒有其他特別的地方了。</t>
+  </si>
+  <si>
+    <t>我開門。沒有獲得「問」。</t>
+  </si>
+  <si>
+    <t>我檢視密室。第一次。</t>
+  </si>
+  <si>
+    <t>我檢視密室。已做過。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。第一次。</t>
+  </si>
+  <si>
+    <t>桌子已經移至門。桌子已經在門前。</t>
+  </si>
+  <si>
+    <t>桌子移至門。桌子不在門前。</t>
+  </si>
+  <si>
+    <t>我開桌子。第一次。</t>
+  </si>
+  <si>
+    <t>我開桌子。已做過。</t>
+  </si>
+  <si>
+    <t>桌子移至角落。桌子不在角落。</t>
+  </si>
+  <si>
+    <t>桌子移至角落。桌子已經在角落。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。第一次。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。已做過。</t>
+  </si>
+  <si>
+    <t>我檢視角落。</t>
+  </si>
+  <si>
+    <t>我檢視天花板。</t>
+  </si>
+  <si>
+    <t>我開天花板。我不在桌子上。</t>
+  </si>
+  <si>
+    <t>黑衣人站在地上，摸不到天花板。</t>
+  </si>
+  <si>
+    <t>我開天花板。我在桌上，桌子在角落。角落上方天花板未開啟。</t>
+  </si>
+  <si>
+    <t>我開天花板。我在桌上，桌子在角落。角落上方天花天已開啟。</t>
+  </si>
+  <si>
+    <t>我開天花板。我在桌上，桌子在門前。門前上方天花天已開啟。</t>
+  </si>
+  <si>
+    <t>我開天花板。我在桌上，桌子在門前。門前上方天花板未開啟。</t>
+  </si>
+  <si>
+    <t>VarianceID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>門上方天花板是封閉的，我無法爬上。</t>
+  </si>
+  <si>
+    <t>我站在地上。天花板太高，我摸不到。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我不在桌上。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在桌上。桌子在角落。黑衣人不在角落天花板上。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在桌上。桌子在門前。門前天花板未開啟。</t>
+  </si>
+  <si>
+    <t>我爬上門上方的天花板。天花板上是一個很狹小的空間。我找到了一個木製的「方塊」。隨後，我下來至密室中央。（獲得「方塊」）</t>
+  </si>
+  <si>
+    <t>我已經爬上門上方的天花板。在裡面找到一個方塊，沒有其他東西了。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在桌上。桌子在門前。門前天花板已開啟。第一次。</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在桌上。桌子在門前。門前天花板已開啟。已做過。</t>
+  </si>
+  <si>
+    <t>我已經將方塊移至大門前了。</t>
+  </si>
+  <si>
+    <t>方塊移至門。方塊未在門前。</t>
+  </si>
+  <si>
+    <t>方塊移至門。方塊已在門前。</t>
+  </si>
+  <si>
+    <t>方塊移至角落。方塊未在角落。</t>
+  </si>
+  <si>
+    <t>方塊移至角落。方塊已在角落。</t>
+  </si>
+  <si>
+    <t>我將方塊移至角落。什麼也沒發生。</t>
+  </si>
+  <si>
+    <t>我已經將方塊移至角落了。</t>
+  </si>
+  <si>
+    <t>我檢視方塊。</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>我檢視門。門前有桌子。未獲得「開」。</t>
+  </si>
+  <si>
+    <t>我檢視門。門前有方塊。未獲得「問」。</t>
+  </si>
+  <si>
+    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的「黑衣人」。他盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「黑衣人」）</t>
+  </si>
+  <si>
+    <t>黑衣人站了起來，走向門，掏出鑰匙將門解鎖並開啟。原來他有鑰匙！</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>我開門。有獲得「問」。</t>
+  </si>
+  <si>
+    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。我盯著黑衣人，他一語不發，但同時我也無法和他說話。我聽見背後的大門自動關上。我被困在這裡了。（遊戲結束）</t>
+  </si>
+  <si>
+    <t>我檢視黑衣人。</t>
+  </si>
+  <si>
+    <t>黑衣人問我：「文華是什麼？」黑衣人回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。文華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
+  </si>
+  <si>
+    <t>我目前沒有想問他的問題了。</t>
+  </si>
+  <si>
+    <t>黑衣人沒有想我的問題了。</t>
+  </si>
+  <si>
+    <t>我問黑衣人。第一次。</t>
+  </si>
+  <si>
+    <t>我問黑衣人。已做過。</t>
+  </si>
+  <si>
+    <t>黑衣人問我。我已問過黑衣人。第一次。</t>
+  </si>
+  <si>
+    <t>黑衣人問我。已做過。</t>
+  </si>
+  <si>
+    <t>黑衣人任何任何。尚未提起小木屋。-2表示任意詞卡。</t>
+  </si>
+  <si>
+    <t>我們都被困在這間審訊室。無法回到我剛才的密室。</t>
+  </si>
+  <si>
+    <t>審訊室門未解鎖。黑衣人與我無法前往密室。</t>
+  </si>
+  <si>
+    <t>黑衣人已經將門開啟。</t>
+  </si>
+  <si>
+    <t>黑衣人開門。第一次。</t>
+  </si>
+  <si>
+    <t>黑衣人開門。已做過。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上桌子。門已開。</t>
+  </si>
+  <si>
+    <t>黑衣人開天花板。黑衣人在桌上，桌子在角落，角落上方天花板未開啟。</t>
+  </si>
+  <si>
+    <t>黑衣人開天花板。黑衣人在桌上，桌子在角落，角落上方天花板已開啟。</t>
+  </si>
+  <si>
+    <t>黑衣人開天花板。黑衣人在桌上，桌子在門前，門前上方天花板已開啟。</t>
+  </si>
+  <si>
+    <t>黑衣人身高夠高，他將角落的天花板掀開。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上角落上方的天花板。他看見上面似乎是一個通道。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上天花板。黑衣人不在桌上。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上天花板。黑衣人在桌上，桌子在門前。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上天花板。黑衣人在桌上，桌子在角落。角落上方天花板已開啟。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上天花板。黑衣人在桌上，桌子在角落。角落上方天花板未開啟。</t>
+  </si>
+  <si>
+    <t>角落上方的天花板是封閉的，黑衣人無法爬上。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在桌上。桌子在角落。黑衣人在角落天花板上。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視門。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視我。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視我。他一臉難以置信，會在這個地方見到以前的朋友。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視方塊。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視桌子。</t>
+  </si>
+  <si>
+    <t>我問黑衣人：「文華在哪裡？」黑衣人眼神呆滯了一下，並回答：「吊在樹上。」</t>
+  </si>
+  <si>
+    <t>黑衣人檢視密室。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視角落。</t>
+  </si>
+  <si>
+    <t>我檢視門。門前沒有東西。第一次。</t>
+  </si>
+  <si>
+    <t>我靠近這扇門並檢視。是一扇很大的門。我感覺整個人在門的下面。忽然間，眼前閃了一道光芒。原來人在門的下面，就成了閃字。我回想起小時候，有人曾在桌子底下寫字。</t>
+  </si>
+  <si>
+    <t>我檢視門。門前沒有東西且已做過。</t>
+  </si>
+  <si>
+    <t>我檢視桌子底下，果然發現有用簽字筆寫的兩個字「移至」。（獲得「移至」）</t>
+  </si>
+  <si>
+    <t>我檢視這張桌子。外觀很像开這個字。好像沒有其他值得注意的地方了。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。已做過。未檢視門。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。已檢視門後的第一次。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。已在檢視門後，檢視過桌子。</t>
+  </si>
+  <si>
+    <t>桌子外觀很像开這個字。好像沒有其他特別的地方了。</t>
+  </si>
+  <si>
+    <t>桌子外觀很像开這個字。除了剛才發現的字跡，好像沒有其他特別的地方了。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,13 +544,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DECA0F6-EBD3-FC42-B032-711010D36FB6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,10 +889,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,6 +970,72 @@
       </c>
       <c r="C8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -569,39 +1045,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -617,11 +1097,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -636,6 +1119,1230 @@
       </c>
       <c r="F3">
         <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>-2</v>
+      </c>
+      <c r="C41">
+        <v>-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-2</v>
+      </c>
+      <c r="B46">
+        <v>-2</v>
+      </c>
+      <c r="C46">
+        <v>-2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>54</v>
+      </c>
+      <c r="G46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -645,91 +2352,497 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="92.33203125" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0E6BA-AE7F-6847-880A-DC3EC1B670B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061727E-574B-B04E-876F-8BF575137F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
     <sheet name="SentenceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="DialogueTable" sheetId="3" r:id="rId3"/>
+    <sheet name="StateTable" sheetId="4" r:id="rId3"/>
+    <sheet name="DialogueTable" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="168">
   <si>
     <t>我</t>
   </si>
@@ -237,9 +238,6 @@
     <t>我檢視密室。已做過。</t>
   </si>
   <si>
-    <t>我檢視桌子。第一次。</t>
-  </si>
-  <si>
     <t>桌子已經移至門。桌子已經在門前。</t>
   </si>
   <si>
@@ -288,9 +286,6 @@
     <t>我開天花板。我在桌上，桌子在門前。門前上方天花板未開啟。</t>
   </si>
   <si>
-    <t>VarianceID</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -492,16 +487,61 @@
     <t>我檢視桌子。已做過。未檢視門。</t>
   </si>
   <si>
-    <t>我檢視桌子。已檢視門後的第一次。</t>
-  </si>
-  <si>
-    <t>我檢視桌子。已在檢視門後，檢視過桌子。</t>
-  </si>
-  <si>
     <t>桌子外觀很像开這個字。好像沒有其他特別的地方了。</t>
   </si>
   <si>
     <t>桌子外觀很像开這個字。除了剛才發現的字跡，好像沒有其他特別的地方了。</t>
+  </si>
+  <si>
+    <t>StateName</t>
+  </si>
+  <si>
+    <t>AlreadyInspectRoom</t>
+  </si>
+  <si>
+    <t>StateArray</t>
+  </si>
+  <si>
+    <t>["No", "Yes"]</t>
+  </si>
+  <si>
+    <t>我檢視桌子。第一次。未檢視門。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。已檢視門。未獲得「移至」。</t>
+  </si>
+  <si>
+    <t>我檢視桌子。已檢視門。已獲得「移至」。</t>
+  </si>
+  <si>
+    <t>{"MeInspectRoom": 0}</t>
+  </si>
+  <si>
+    <t>{"MeInspectRoom": 1}</t>
+  </si>
+  <si>
+    <t>{"MeInspectTable":0, "MeInspectDoor": 0 }</t>
+  </si>
+  <si>
+    <t>{"MeInspectTable":1, "MeInspectDoor": 0 }</t>
+  </si>
+  <si>
+    <t>{"MeInspectDoor": 1, "MoveToGot": 0 }</t>
+  </si>
+  <si>
+    <t>{"MeInspectDoor": 1, "MoveToGot": 1 }</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>{"MeInspectTable": 1}</t>
+  </si>
+  <si>
+    <t>{"MoveToGot": 1}</t>
   </si>
 </sst>
 </file>
@@ -544,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,7 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1045,20 +1084,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1078,10 +1119,13 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1091,20 +1135,23 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1114,17 +1161,17 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>159</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1134,17 +1181,20 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>160</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1154,17 +1204,17 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>161</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1174,8 +1224,8 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>162</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1184,10 +1234,13 @@
         <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1197,17 +1250,17 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" t="s">
+        <v>163</v>
       </c>
       <c r="F7">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1223,11 +1276,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1246,11 +1299,11 @@
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1264,16 +1317,16 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1289,11 +1342,11 @@
       <c r="F11">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1309,11 +1362,11 @@
       <c r="F12">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1329,11 +1382,11 @@
       <c r="F13">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1349,11 +1402,11 @@
       <c r="F14">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1367,16 +1420,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1395,11 +1448,11 @@
       <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1415,11 +1468,11 @@
       <c r="F17">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1435,11 +1488,11 @@
       <c r="F18">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1455,11 +1508,11 @@
       <c r="F19">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1478,11 +1531,11 @@
       <c r="F20">
         <v>14</v>
       </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1498,11 +1551,11 @@
       <c r="F21">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1518,11 +1571,11 @@
       <c r="F22">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1538,11 +1591,11 @@
       <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1558,11 +1611,11 @@
       <c r="F24">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1578,11 +1631,11 @@
       <c r="F25">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1598,11 +1651,11 @@
       <c r="F26">
         <v>39</v>
       </c>
-      <c r="G26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1618,11 +1671,11 @@
       <c r="F27">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1638,11 +1691,11 @@
       <c r="F28">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1658,11 +1711,11 @@
       <c r="F29">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1678,11 +1731,11 @@
       <c r="F30">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1698,11 +1751,11 @@
       <c r="F31">
         <v>46</v>
       </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1716,16 +1769,16 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1741,11 +1794,11 @@
       <c r="F33">
         <v>47</v>
       </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1761,11 +1814,11 @@
       <c r="F34">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1781,11 +1834,11 @@
       <c r="F35">
         <v>20</v>
       </c>
-      <c r="G35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1801,11 +1854,11 @@
       <c r="F36">
         <v>48</v>
       </c>
-      <c r="G36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1821,11 +1874,11 @@
       <c r="F37">
         <v>49</v>
       </c>
-      <c r="G37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1841,11 +1894,11 @@
       <c r="F38">
         <v>50</v>
       </c>
-      <c r="G38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1861,11 +1914,11 @@
       <c r="F39">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1881,11 +1934,11 @@
       <c r="F40">
         <v>23</v>
       </c>
-      <c r="G40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>12</v>
       </c>
@@ -1901,11 +1954,11 @@
       <c r="F41">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1921,11 +1974,11 @@
       <c r="F42">
         <v>25</v>
       </c>
-      <c r="G42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1941,11 +1994,11 @@
       <c r="F43">
         <v>52</v>
       </c>
-      <c r="G43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12</v>
       </c>
@@ -1961,11 +2014,11 @@
       <c r="F44">
         <v>26</v>
       </c>
-      <c r="G44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>12</v>
       </c>
@@ -1981,11 +2034,11 @@
       <c r="F45">
         <v>53</v>
       </c>
-      <c r="G45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-2</v>
       </c>
@@ -2001,11 +2054,11 @@
       <c r="F46">
         <v>54</v>
       </c>
-      <c r="G46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2021,11 +2074,11 @@
       <c r="F47">
         <v>51</v>
       </c>
-      <c r="G47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2041,11 +2094,11 @@
       <c r="F48">
         <v>55</v>
       </c>
-      <c r="G48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2061,11 +2114,11 @@
       <c r="F49">
         <v>27</v>
       </c>
-      <c r="G49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2081,11 +2134,11 @@
       <c r="F50">
         <v>28</v>
       </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>12</v>
       </c>
@@ -2101,11 +2154,11 @@
       <c r="F51">
         <v>40</v>
       </c>
-      <c r="G51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2121,11 +2174,11 @@
       <c r="F52">
         <v>41</v>
       </c>
-      <c r="G52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2141,11 +2194,11 @@
       <c r="F53">
         <v>45</v>
       </c>
-      <c r="G53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
@@ -2161,11 +2214,11 @@
       <c r="F54">
         <v>42</v>
       </c>
-      <c r="G54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>12</v>
       </c>
@@ -2181,11 +2234,11 @@
       <c r="F55">
         <v>56</v>
       </c>
-      <c r="G55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12</v>
       </c>
@@ -2201,11 +2254,11 @@
       <c r="F56">
         <v>29</v>
       </c>
-      <c r="G56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
@@ -2221,11 +2274,11 @@
       <c r="F57">
         <v>31</v>
       </c>
-      <c r="G57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12</v>
       </c>
@@ -2241,11 +2294,11 @@
       <c r="F58">
         <v>32</v>
       </c>
-      <c r="G58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>12</v>
       </c>
@@ -2261,11 +2314,11 @@
       <c r="F59">
         <v>33</v>
       </c>
-      <c r="G59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>12</v>
       </c>
@@ -2281,11 +2334,11 @@
       <c r="F60">
         <v>34</v>
       </c>
-      <c r="G60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
@@ -2301,11 +2354,11 @@
       <c r="F61">
         <v>35</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
@@ -2321,11 +2374,11 @@
       <c r="F62">
         <v>36</v>
       </c>
-      <c r="G62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>12</v>
       </c>
@@ -2341,8 +2394,8 @@
       <c r="F63">
         <v>37</v>
       </c>
-      <c r="G63" t="s">
-        <v>144</v>
+      <c r="H63" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2351,10 +2404,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -2401,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2409,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2417,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2449,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2521,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2553,7 +2641,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2577,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2585,7 +2673,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2601,7 +2689,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2609,7 +2697,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2633,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2729,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2737,7 +2825,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2745,7 +2833,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2753,7 +2841,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2761,7 +2849,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2769,7 +2857,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2777,7 +2865,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2785,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2793,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2801,7 +2889,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2809,7 +2897,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2817,7 +2905,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2825,7 +2913,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2833,15 +2921,15 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>154</v>
+      <c r="B60" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061727E-574B-B04E-876F-8BF575137F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B84859-127D-AF4D-AAF0-573E6CED9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
     <sheet name="SentenceTable" sheetId="2" r:id="rId2"/>
     <sheet name="StateTable" sheetId="4" r:id="rId3"/>
-    <sheet name="DialogueTable" sheetId="3" r:id="rId4"/>
+    <sheet name="StateInitTable" sheetId="5" r:id="rId4"/>
+    <sheet name="DialogueTable" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="186">
   <si>
     <t>我</t>
   </si>
@@ -469,9 +470,6 @@
     <t>黑衣人檢視角落。</t>
   </si>
   <si>
-    <t>我檢視門。門前沒有東西。第一次。</t>
-  </si>
-  <si>
     <t>我靠近這扇門並檢視。是一扇很大的門。我感覺整個人在門的下面。忽然間，眼前閃了一道光芒。原來人在門的下面，就成了閃字。我回想起小時候，有人曾在桌子底下寫字。</t>
   </si>
   <si>
@@ -496,15 +494,9 @@
     <t>StateName</t>
   </si>
   <si>
-    <t>AlreadyInspectRoom</t>
-  </si>
-  <si>
     <t>StateArray</t>
   </si>
   <si>
-    <t>["No", "Yes"]</t>
-  </si>
-  <si>
     <t>我檢視桌子。第一次。未檢視門。</t>
   </si>
   <si>
@@ -514,34 +506,97 @@
     <t>我檢視桌子。已檢視門。已獲得「移至」。</t>
   </si>
   <si>
-    <t>{"MeInspectRoom": 0}</t>
-  </si>
-  <si>
-    <t>{"MeInspectRoom": 1}</t>
-  </si>
-  <si>
-    <t>{"MeInspectTable":0, "MeInspectDoor": 0 }</t>
-  </si>
-  <si>
-    <t>{"MeInspectTable":1, "MeInspectDoor": 0 }</t>
-  </si>
-  <si>
-    <t>{"MeInspectDoor": 1, "MoveToGot": 0 }</t>
-  </si>
-  <si>
-    <t>{"MeInspectDoor": 1, "MoveToGot": 1 }</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
     <t>Consequence</t>
   </si>
   <si>
-    <t>{"MeInspectTable": 1}</t>
-  </si>
-  <si>
-    <t>{"MoveToGot": 1}</t>
+    <t>我檢視門。第一次。</t>
+  </si>
+  <si>
+    <t>TablePosition</t>
+  </si>
+  <si>
+    <t>MeInspectRoom</t>
+  </si>
+  <si>
+    <t>!MeInspectRoom</t>
+  </si>
+  <si>
+    <t>MeInspectDoor &amp;&amp; MoveToGot</t>
+  </si>
+  <si>
+    <t>!MeInspectDoor</t>
+  </si>
+  <si>
+    <t>MeInspectRoom = true;</t>
+  </si>
+  <si>
+    <t>MeInspectTable = true;</t>
+  </si>
+  <si>
+    <t>MoveToGot = true;</t>
+  </si>
+  <si>
+    <t>MeInspectDoor = true;</t>
+  </si>
+  <si>
+    <t>OpenGot = true;</t>
+  </si>
+  <si>
+    <t>AskGot = true;</t>
+  </si>
+  <si>
+    <t>!MeInspectTable &amp;&amp; !MeInspectDoor</t>
+  </si>
+  <si>
+    <t>MeInspectTable &amp;&amp; !MeInspectDoor</t>
+  </si>
+  <si>
+    <t>MeInspectDoor &amp;&amp; !MoveToGot</t>
+  </si>
+  <si>
+    <t>StateInit</t>
+  </si>
+  <si>
+    <t>MeInspectTable</t>
+  </si>
+  <si>
+    <t>MoveToGot</t>
+  </si>
+  <si>
+    <t>MeInspectDoor</t>
+  </si>
+  <si>
+    <t>BoxPosition</t>
+  </si>
+  <si>
+    <t>OpenGot</t>
+  </si>
+  <si>
+    <t>AskGot</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>[null, "Door", "Corner"]</t>
+  </si>
+  <si>
+    <t>TablePosition = "Door";</t>
+  </si>
+  <si>
+    <t>TablePosition != "Door"</t>
+  </si>
+  <si>
+    <t>MeInspectDoor &amp;&amp; (TablePosition != "Door" || OpenGot) &amp;&amp; (BoxPosition != "Door" || AskGot)</t>
+  </si>
+  <si>
+    <t>BoxPosition == "Door" &amp;&amp; !AskGot</t>
+  </si>
+  <si>
+    <t>TablePosition == "Door" &amp;&amp; !OpenGot</t>
   </si>
 </sst>
 </file>
@@ -584,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +652,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,1314 +1148,1327 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4">
+        <v>169</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="1">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="H4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="H8" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9">
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="C24" s="1">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="C25" s="1">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>9</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>39</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>9</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>40</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>9</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>41</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>9</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>44</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>9</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>17</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>9</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>9</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>18</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>9</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>9</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>10</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>10</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>48</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>7</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>49</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>7</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>50</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>10</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>12</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>23</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>12</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>-2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>-2</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>24</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>12</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>25</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>12</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>52</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>12</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>11</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>26</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>11</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>53</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>-2</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>-2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>-2</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>54</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>12</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>12</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>4</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>55</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>12</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>27</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>12</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>9</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>28</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>12</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>9</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>40</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>12</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>9</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>41</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>12</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>9</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>45</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>12</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>8</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>9</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>42</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>8</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>9</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>56</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>12</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>8</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>9</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>29</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>12</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
         <v>4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>31</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>12</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>32</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>12</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
         <v>10</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>33</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>12</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
         <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>34</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>12</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>35</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>12</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>36</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>12</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
         <v>7</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>37</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2405,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -2414,23 +2488,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2439,6 +2521,97 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE2082-BD64-9945-9BBD-C694779D664B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -2489,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2497,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2505,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2921,7 +3094,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2929,7 +3102,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B84859-127D-AF4D-AAF0-573E6CED9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EF5410-DC9F-4A49-BBF0-E38E69AD039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
     <sheet name="SentenceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="StateTable" sheetId="4" r:id="rId3"/>
-    <sheet name="StateInitTable" sheetId="5" r:id="rId4"/>
-    <sheet name="DialogueTable" sheetId="3" r:id="rId5"/>
+    <sheet name="FallbackTable" sheetId="6" r:id="rId3"/>
+    <sheet name="StateTable" sheetId="4" r:id="rId4"/>
+    <sheet name="StateInitTable" sheetId="5" r:id="rId5"/>
+    <sheet name="DialogueTable" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="296">
   <si>
     <t>我</t>
   </si>
@@ -170,9 +171,6 @@
     <t>黑衣人檢視桌子。他回想起小木屋內也曾有一張一模一樣的桌子。</t>
   </si>
   <si>
-    <t>黑衣人檢視天花板。</t>
-  </si>
-  <si>
     <t>黑衣人檢視方塊。他回想起小木屋的小書櫃，裡面有許多本小說。</t>
   </si>
   <si>
@@ -200,9 +198,6 @@
     <t>問</t>
   </si>
   <si>
-    <t>黑衣人</t>
-  </si>
-  <si>
     <t>[7,8]</t>
   </si>
   <si>
@@ -221,9 +216,6 @@
     <t>門上方的天花板已經被掀開。</t>
   </si>
   <si>
-    <t>黑衣人爬上門上方的天花板。除了我剛才找到的方塊，他在裡面沒有找到其他東西了。</t>
-  </si>
-  <si>
     <t>我檢視天花板。天花板是由一塊一塊木板拼湊而成。</t>
   </si>
   <si>
@@ -257,18 +249,6 @@
     <t>桌子移至角落。桌子已經在角落。</t>
   </si>
   <si>
-    <t>我爬上桌子。第一次。</t>
-  </si>
-  <si>
-    <t>我爬上桌子。已做過。</t>
-  </si>
-  <si>
-    <t>我檢視角落。</t>
-  </si>
-  <si>
-    <t>我檢視天花板。</t>
-  </si>
-  <si>
     <t>我開天花板。我不在桌子上。</t>
   </si>
   <si>
@@ -356,9 +336,6 @@
     <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的「黑衣人」。他盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「黑衣人」）</t>
   </si>
   <si>
-    <t>黑衣人站了起來，走向門，掏出鑰匙將門解鎖並開啟。原來他有鑰匙！</t>
-  </si>
-  <si>
     <t>[12]</t>
   </si>
   <si>
@@ -371,15 +348,9 @@
     <t>我檢視黑衣人。</t>
   </si>
   <si>
-    <t>黑衣人問我：「文華是什麼？」黑衣人回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。文華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
-  </si>
-  <si>
     <t>我目前沒有想問他的問題了。</t>
   </si>
   <si>
-    <t>黑衣人沒有想我的問題了。</t>
-  </si>
-  <si>
     <t>我問黑衣人。第一次。</t>
   </si>
   <si>
@@ -392,15 +363,9 @@
     <t>黑衣人問我。已做過。</t>
   </si>
   <si>
-    <t>黑衣人任何任何。尚未提起小木屋。-2表示任意詞卡。</t>
-  </si>
-  <si>
     <t>我們都被困在這間審訊室。無法回到我剛才的密室。</t>
   </si>
   <si>
-    <t>審訊室門未解鎖。黑衣人與我無法前往密室。</t>
-  </si>
-  <si>
     <t>黑衣人已經將門開啟。</t>
   </si>
   <si>
@@ -410,9 +375,6 @@
     <t>黑衣人開門。已做過。</t>
   </si>
   <si>
-    <t>黑衣人爬上桌子。門已開。</t>
-  </si>
-  <si>
     <t>黑衣人開天花板。黑衣人在桌上，桌子在角落，角落上方天花板未開啟。</t>
   </si>
   <si>
@@ -446,9 +408,6 @@
     <t>我爬上天花板。我在桌上。桌子在角落。黑衣人在角落天花板上。</t>
   </si>
   <si>
-    <t>黑衣人檢視門。</t>
-  </si>
-  <si>
     <t>黑衣人檢視我。</t>
   </si>
   <si>
@@ -461,15 +420,9 @@
     <t>黑衣人檢視桌子。</t>
   </si>
   <si>
-    <t>我問黑衣人：「文華在哪裡？」黑衣人眼神呆滯了一下，並回答：「吊在樹上。」</t>
-  </si>
-  <si>
     <t>黑衣人檢視密室。</t>
   </si>
   <si>
-    <t>黑衣人檢視角落。</t>
-  </si>
-  <si>
     <t>我靠近這扇門並檢視。是一扇很大的門。我感覺整個人在門的下面。忽然間，眼前閃了一道光芒。原來人在門的下面，就成了閃字。我回想起小時候，有人曾在桌子底下寫字。</t>
   </si>
   <si>
@@ -597,6 +550,388 @@
   </si>
   <si>
     <t>TablePosition == "Door" &amp;&amp; !OpenGot</t>
+  </si>
+  <si>
+    <t>TablePosition == "Door"</t>
+  </si>
+  <si>
+    <t>!AskGot</t>
+  </si>
+  <si>
+    <t>TheEnd = true;</t>
+  </si>
+  <si>
+    <t>TheEnd</t>
+  </si>
+  <si>
+    <t>TableOpen</t>
+  </si>
+  <si>
+    <t>!TableOpen</t>
+  </si>
+  <si>
+    <t>TableOpen = true;</t>
+  </si>
+  <si>
+    <t>TablePosition != "Corner"</t>
+  </si>
+  <si>
+    <t>TablePosition = "Corner";</t>
+  </si>
+  <si>
+    <t>TablePosition == "Corner"</t>
+  </si>
+  <si>
+    <t>MePosition</t>
+  </si>
+  <si>
+    <t>MePosition = "Table"</t>
+  </si>
+  <si>
+    <t>我已經在桌上了。</t>
+  </si>
+  <si>
+    <t>黑衣人已經在桌上了。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。已做過。我不在桌上。我沒有卡在審訊室。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。第一次。我不在桌上。我沒有卡在審訊室。</t>
+  </si>
+  <si>
+    <t>我爬上桌子。我已經在桌上。</t>
+  </si>
+  <si>
+    <t>MePosition == "Table"</t>
+  </si>
+  <si>
+    <t>HasClimbTable</t>
+  </si>
+  <si>
+    <t>HasClimbTable = true;
+MePosition = "Table";</t>
+  </si>
+  <si>
+    <t>HasClimbTable &amp;&amp; MePosition != "Table"</t>
+  </si>
+  <si>
+    <t>密室的大門與審訊室共用。我看見大門在審訊室這一側有一個鑰匙孔。</t>
+  </si>
+  <si>
+    <t>黑衣人看著這扇自動關閉的門。右手插入黑色大衣的口袋，似乎在找什麼。</t>
+  </si>
+  <si>
+    <t>我嘗試從審訊室這一側開啟被鎖上的大門。我用力推大門，大門還是一動也不動。</t>
+  </si>
+  <si>
+    <t>MePosition == "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>黑衣人站了起來，走向門，掏出鑰匙將門解鎖並開啟。原來他有鑰匙！我們隨後來到了密室。</t>
+  </si>
+  <si>
+    <t>我檢視門。我在審訊室。</t>
+  </si>
+  <si>
+    <t>HePosition == "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>黑衣人檢視門。黑衣人在審訊室。</t>
+  </si>
+  <si>
+    <t>我開門。我在審訊室。</t>
+  </si>
+  <si>
+    <t>HePosition</t>
+  </si>
+  <si>
+    <t>InterrogationRoom</t>
+  </si>
+  <si>
+    <t>MePosition = "InterrogationRoom";</t>
+  </si>
+  <si>
+    <t>MePosition != "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>審訊室上方的天花板是水泥做的，什麼也沒有。</t>
+  </si>
+  <si>
+    <t>黑衣人看著審訊室上方的天花板，他什麼也沒看見。</t>
+  </si>
+  <si>
+    <t>我檢視天花板。我在審訊室。</t>
+  </si>
+  <si>
+    <t>我檢視審訊室的角落。什麼也沒有。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視審訊室的角落。他什麼也沒發現。</t>
+  </si>
+  <si>
+    <t>我檢視角落。我在審訊室。</t>
+  </si>
+  <si>
+    <t>我檢視角落。我不在審訊室。</t>
+  </si>
+  <si>
+    <t>我檢視天花板。我不在審訊室。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視角落。黑衣人在審訊室。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視角落。黑衣人不在審訊室。</t>
+  </si>
+  <si>
+    <t>HePosition != "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>黑衣人檢視天花板。黑衣人不在審訊室。</t>
+  </si>
+  <si>
+    <t>黑衣人檢視天花板。黑衣人在審訊室。</t>
+  </si>
+  <si>
+    <t>[false, true]</t>
+  </si>
+  <si>
+    <t>FallbackDialogueID</t>
+  </si>
+  <si>
+    <t>方塊沒有什麼地方是可以打開的。</t>
+  </si>
+  <si>
+    <t>黑衣人嘗試打開方塊，他沒有找到可以打開的地方。</t>
+  </si>
+  <si>
+    <t>黑衣人沒有可以打開的地方。</t>
+  </si>
+  <si>
+    <t>黑衣人嘗試打開我，我抗拒著。最終他沒有找到可以打開我的地方。</t>
+  </si>
+  <si>
+    <t>審訊室的天花板太高，也沒有洞口，我無法爬上。</t>
+  </si>
+  <si>
+    <t>黑衣人無法碰觸到審訊室的天花板。他無法爬上。</t>
+  </si>
+  <si>
+    <t>我爬上黑衣人，好像站在巨人的肩膀上。</t>
+  </si>
+  <si>
+    <t>不要吧。他太重了。我會骨折。</t>
+  </si>
+  <si>
+    <t>門是平坦的。沒有地方可以讓我爬上。</t>
+  </si>
+  <si>
+    <t>黑衣人看著平坦的門。他沒有找到能夠讓他爬上的凸起物。</t>
+  </si>
+  <si>
+    <t>我問黑衣人：「小華在哪裡？」黑衣人眼神呆滯了一下，並回答：「吊在樹上。」</t>
+  </si>
+  <si>
+    <t>黑衣人問我：「小華是誰？」黑衣人回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。小華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
+  </si>
+  <si>
+    <t>黑衣人檢視門。黑衣人不在審訊室。</t>
+  </si>
+  <si>
+    <t>!HasClimbTable &amp;&amp; MePosition != "Table"</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; !CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>MePosition != "Table"</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; !DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>CornerCeilingOpen = true;</t>
+  </si>
+  <si>
+    <t>DoorCeilingOpen = true;</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; HePosition != "Ceiling"</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; DoorCeilingOpen &amp;&amp; !CubeGot</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; DoorCeilingOpen &amp;&amp; CubeGot</t>
+  </si>
+  <si>
+    <t>CubeGot</t>
+  </si>
+  <si>
+    <t>MePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; HePosition == "Ceiling"</t>
+  </si>
+  <si>
+    <t>CubePosition != "Door"</t>
+  </si>
+  <si>
+    <t>CubePosition</t>
+  </si>
+  <si>
+    <t>["null", "Door", "Corner"]</t>
+  </si>
+  <si>
+    <t>CubePosition = "Door";</t>
+  </si>
+  <si>
+    <t>CubePosition == "Door"</t>
+  </si>
+  <si>
+    <t>CubePosition != "Corner"</t>
+  </si>
+  <si>
+    <t>CubePosition == "Corner"</t>
+  </si>
+  <si>
+    <t>HeAsked</t>
+  </si>
+  <si>
+    <t>MeAsked</t>
+  </si>
+  <si>
+    <t>!HeAsked</t>
+  </si>
+  <si>
+    <t>!MeAsked</t>
+  </si>
+  <si>
+    <t>黑衣人沒有想問我的問題了。</t>
+  </si>
+  <si>
+    <t>我大喊著：「密室啊密室！是誰把我困在這個地方？」</t>
+  </si>
+  <si>
+    <t>黑衣人不想對著空氣說話。</t>
+  </si>
+  <si>
+    <t>!DoorOpen</t>
+  </si>
+  <si>
+    <t>DoorOpen</t>
+  </si>
+  <si>
+    <t>MeAsked &amp;&amp; !HeAsked</t>
+  </si>
+  <si>
+    <t>MeAsked = true;</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>黑衣人問我。我還沒有問過黑衣人。</t>
+  </si>
+  <si>
+    <t>HeAsked = true;</t>
+  </si>
+  <si>
+    <t>DoorOpen = true;
+MePosition = "Room";
+HePosition = "Room";</t>
+  </si>
+  <si>
+    <t>["Room", "Table", "InterrogationRoom", "Ceiling"]</t>
+  </si>
+  <si>
+    <t>HePosition = "Table";</t>
+  </si>
+  <si>
+    <t>HePosition != "Table"</t>
+  </si>
+  <si>
+    <t>HePosition == "Table"</t>
+  </si>
+  <si>
+    <t>黑衣人爬上桌子。他已在桌上。</t>
+  </si>
+  <si>
+    <t>黑衣人爬上桌子。他不在桌上。</t>
+  </si>
+  <si>
+    <t>HePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; !CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>HePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>HePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>HePosition == "Table" &amp;&amp; TablePosition == "Door"</t>
+  </si>
+  <si>
+    <t>黑衣人爬上門上方的天花板。除了我剛才找到的方塊，他在裡面沒有找到其他東西了。隨後，他回到了密室中央。</t>
+  </si>
+  <si>
+    <t>HePosition = "Room";</t>
+  </si>
+  <si>
+    <t>HePosition = "Ceiling";</t>
+  </si>
+  <si>
+    <t>CubeGot = true;
+HePosition = "Room";</t>
+  </si>
+  <si>
+    <t>我開方塊。</t>
+  </si>
+  <si>
+    <t>他開方塊。</t>
+  </si>
+  <si>
+    <t>我開他。</t>
+  </si>
+  <si>
+    <t>他開我。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在審訊室。</t>
+  </si>
+  <si>
+    <t>他爬上天花板。他在審訊室。</t>
+  </si>
+  <si>
+    <t>他爬上我。</t>
+  </si>
+  <si>
+    <t>我爬上他。</t>
+  </si>
+  <si>
+    <t>我爬上門。</t>
+  </si>
+  <si>
+    <t>他爬上門。</t>
+  </si>
+  <si>
+    <t>我問密室。</t>
+  </si>
+  <si>
+    <t>他問密室。</t>
   </si>
 </sst>
 </file>
@@ -639,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,6 +993,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +1324,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1088,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1099,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1110,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1121,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1132,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1145,23 +1493,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="50.1640625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="66.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1171,8 +1519,8 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>155</v>
+      <c r="D1" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1180,14 +1528,14 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>156</v>
+      <c r="G1" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1197,8 +1545,8 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>160</v>
+      <c r="D2" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1206,14 +1554,14 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>163</v>
+      <c r="G2" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1223,17 +1571,17 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>159</v>
+      <c r="D3" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1243,20 +1591,20 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>169</v>
+      <c r="D4" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>164</v>
+      <c r="G4" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1266,17 +1614,17 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>170</v>
+      <c r="D5" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1286,8 +1634,8 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>171</v>
+      <c r="D6" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1295,14 +1643,14 @@
       <c r="F6" s="1">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
-        <v>165</v>
+      <c r="G6" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1312,17 +1660,17 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>161</v>
+      <c r="D7" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F7" s="1">
         <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1332,20 +1680,20 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>162</v>
+      <c r="D8" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>166</v>
+      <c r="G8" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1355,8 +1703,8 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>185</v>
+      <c r="D9" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
@@ -1364,14 +1712,14 @@
       <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
-        <v>167</v>
+      <c r="G9" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1381,20 +1729,20 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>184</v>
+      <c r="D10" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>168</v>
+      <c r="G10" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1407,40 +1755,37 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>183</v>
+      <c r="D11" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>182</v>
+      <c r="D12" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F12" s="1">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1450,37 +1795,40 @@
       <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="F13" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="F14" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1490,20 +1838,20 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>106</v>
+      <c r="D15" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F15" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1511,22 +1859,25 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1534,345 +1885,360 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="1">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="1">
+        <v>59</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <v>38</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="D25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="1">
+        <v>66</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
         <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>11</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>44</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>17</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>39</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>3</v>
+      <c r="D27" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F27" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>9</v>
       </c>
-      <c r="D28">
-        <v>4</v>
+      <c r="D28" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F28" s="1">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>9</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="F29" s="1">
         <v>44</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F30" s="1">
         <v>17</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>2</v>
+      <c r="D31" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F31" s="1">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
+      <c r="D32" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="F32" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <v>9</v>
       </c>
-      <c r="D33">
-        <v>4</v>
+      <c r="D33" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="F33" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1882,357 +2248,372 @@
       <c r="C34" s="1">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="1">
+        <v>46</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="1">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="1">
+        <v>47</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="1">
+        <v>72</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
-        <v>30</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="1">
+        <v>20</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>10</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>20</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="D42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F42" s="1">
+        <v>48</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>48</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="1">
+        <v>49</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>49</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="D44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="1">
         <v>50</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>19</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>23</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>24</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>25</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>52</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1">
-        <v>11</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>26</v>
-      </c>
       <c r="H44" s="5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
         <v>12</v>
       </c>
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+      <c r="D47" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F47" s="1">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="B48" s="1">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
+      <c r="D48" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="F48" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>12</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F49" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>12</v>
       </c>
       <c r="B50" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1">
-        <v>9</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="F50" s="1">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1">
-        <v>9</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F51" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -2240,39 +2621,42 @@
         <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>9</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="F52" s="1">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="F53" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>12</v>
       </c>
@@ -2280,19 +2664,22 @@
         <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="F54" s="1">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -2300,176 +2687,544 @@
         <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F55" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
       </c>
-      <c r="D56">
-        <v>3</v>
+      <c r="D56" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F56" s="1">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="F57" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>12</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="F58" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="F59" s="1">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>12</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="F60" s="1">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
-      <c r="D61">
-        <v>0</v>
+      <c r="D61" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>12</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="F62" s="1">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>12</v>
       </c>
       <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="1">
+        <v>73</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="1">
+        <v>31</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="1">
+        <v>62</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>32</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>33</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="F68" s="1">
+        <v>34</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="1">
+        <v>35</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="1">
+        <v>65</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>36</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
         <v>7</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="D72" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="1">
         <v>37</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>142</v>
+      <c r="H72" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="1">
+        <v>67</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <v>68</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1">
+        <v>69</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1">
+        <v>70</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>71</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1">
+        <v>74</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>75</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1">
+        <v>76</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>77</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>78</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>79</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2478,42 +3233,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9A85D4-E0C7-5241-B7ED-7E528C1CA85C}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,89 +3437,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE2082-BD64-9945-9BBD-C694779D664B}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>172</v>
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="6" t="b">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="6" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="6" t="b">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="6" t="b">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>179</v>
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="6" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2612,11 +3520,190 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE2082-BD64-9945-9BBD-C694779D664B}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2662,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2670,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2678,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2710,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2766,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2782,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,7 +3901,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2838,7 +3925,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2846,7 +3933,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2862,7 +3949,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2870,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2894,7 +3981,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2902,7 +3989,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2918,7 +4005,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2926,7 +4013,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2934,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2942,7 +4029,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2950,7 +4037,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2958,7 +4045,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2966,15 +4053,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2982,7 +4069,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2990,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2998,7 +4085,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3006,7 +4093,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3014,7 +4101,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3022,7 +4109,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3030,7 +4117,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3038,7 +4125,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3046,7 +4133,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3054,7 +4141,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3062,7 +4149,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3070,7 +4157,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3078,7 +4165,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3086,7 +4173,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3094,7 +4181,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3102,7 +4189,175 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EF5410-DC9F-4A49-BBF0-E38E69AD039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A93A11F-3F89-E843-B6B5-8D38F22EC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="298">
   <si>
     <t>我</t>
   </si>
@@ -333,15 +333,9 @@
     <t>我檢視門。門前有方塊。未獲得「問」。</t>
   </si>
   <si>
-    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的「黑衣人」。他盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「黑衣人」）</t>
-  </si>
-  <si>
     <t>[12]</t>
   </si>
   <si>
-    <t>我開門。有獲得「問」。</t>
-  </si>
-  <si>
     <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。我盯著黑衣人，他一語不發，但同時我也無法和他說話。我聽見背後的大門自動關上。我被困在這裡了。（遊戲結束）</t>
   </si>
   <si>
@@ -541,12 +535,6 @@
   </si>
   <si>
     <t>TablePosition != "Door"</t>
-  </si>
-  <si>
-    <t>MeInspectDoor &amp;&amp; (TablePosition != "Door" || OpenGot) &amp;&amp; (BoxPosition != "Door" || AskGot)</t>
-  </si>
-  <si>
-    <t>BoxPosition == "Door" &amp;&amp; !AskGot</t>
   </si>
   <si>
     <t>TablePosition == "Door" &amp;&amp; !OpenGot</t>
@@ -646,9 +634,6 @@
     <t>HePosition</t>
   </si>
   <si>
-    <t>InterrogationRoom</t>
-  </si>
-  <si>
     <t>MePosition = "InterrogationRoom";</t>
   </si>
   <si>
@@ -770,9 +755,6 @@
   </si>
   <si>
     <t>MePosition == "Table" &amp;&amp; TablePosition == "Corner" &amp;&amp; HePosition != "Ceiling"</t>
-  </si>
-  <si>
-    <t>Room</t>
   </si>
   <si>
     <t>MePosition == "Table" &amp;&amp; TablePosition == "Door" &amp;&amp; DoorCeilingOpen &amp;&amp; !CubeGot</t>
@@ -894,44 +876,68 @@
     <t>HePosition = "Ceiling";</t>
   </si>
   <si>
+    <t>我開方塊。</t>
+  </si>
+  <si>
+    <t>他開方塊。</t>
+  </si>
+  <si>
+    <t>我開他。</t>
+  </si>
+  <si>
+    <t>他開我。</t>
+  </si>
+  <si>
+    <t>我爬上天花板。我在審訊室。</t>
+  </si>
+  <si>
+    <t>他爬上天花板。他在審訊室。</t>
+  </si>
+  <si>
+    <t>他爬上我。</t>
+  </si>
+  <si>
+    <t>我爬上他。</t>
+  </si>
+  <si>
+    <t>我爬上門。</t>
+  </si>
+  <si>
+    <t>他爬上門。</t>
+  </si>
+  <si>
+    <t>我問密室。</t>
+  </si>
+  <si>
+    <t>他問密室。</t>
+  </si>
+  <si>
+    <t>"Room"</t>
+  </si>
+  <si>
+    <t>"InterrogationRoom"</t>
+  </si>
+  <si>
     <t>CubeGot = true;
-HePosition = "Room";</t>
-  </si>
-  <si>
-    <t>我開方塊。</t>
-  </si>
-  <si>
-    <t>他開方塊。</t>
-  </si>
-  <si>
-    <t>我開他。</t>
-  </si>
-  <si>
-    <t>他開我。</t>
-  </si>
-  <si>
-    <t>我爬上天花板。我在審訊室。</t>
-  </si>
-  <si>
-    <t>他爬上天花板。他在審訊室。</t>
-  </si>
-  <si>
-    <t>他爬上我。</t>
-  </si>
-  <si>
-    <t>我爬上他。</t>
-  </si>
-  <si>
-    <t>我爬上門。</t>
-  </si>
-  <si>
-    <t>他爬上門。</t>
-  </si>
-  <si>
-    <t>我問密室。</t>
-  </si>
-  <si>
-    <t>他問密室。</t>
+MePosition = "Room";</t>
+  </si>
+  <si>
+    <t>MePosition = "Room";</t>
+  </si>
+  <si>
+    <t>CubePosition == "Door" &amp;&amp; !AskGot</t>
+  </si>
+  <si>
+    <t>MeInspectDoor &amp;&amp; (TablePosition != "Door" || OpenGot) &amp;&amp; (CubePosition != "Door" || AskGot)</t>
+  </si>
+  <si>
+    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。「他」盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「他」）</t>
+  </si>
+  <si>
+    <t>AskGot || MePosition != "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>我開門。有獲得「問」。我不在審訊室。</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1495,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1529,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>75</v>
@@ -1546,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1555,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>61</v>
@@ -1572,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1592,16 +1598,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1615,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1635,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1644,10 +1650,10 @@
         <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1661,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1">
         <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1681,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1704,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
@@ -1713,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>95</v>
@@ -1730,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>94</v>
@@ -1739,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>96</v>
@@ -1756,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1776,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F12" s="1">
         <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1796,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
@@ -1819,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -1839,13 +1845,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1">
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1862,19 +1868,19 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1888,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1">
         <v>63</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1908,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -1917,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>65</v>
@@ -1934,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -1954,13 +1960,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>67</v>
@@ -1977,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F21" s="1">
         <v>13</v>
@@ -1997,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -2006,10 +2012,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2023,16 +2029,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F23" s="1">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2046,13 +2052,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1">
         <v>59</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2066,13 +2072,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F25" s="1">
         <v>11</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2086,13 +2092,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1">
         <v>66</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2106,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F27" s="1">
         <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2126,13 +2132,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F28" s="1">
         <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2146,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F29" s="1">
         <v>44</v>
@@ -2166,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F30" s="1">
         <v>17</v>
@@ -2186,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F31" s="1">
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>74</v>
@@ -2209,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F32" s="1">
         <v>40</v>
@@ -2229,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F33" s="1">
         <v>41</v>
@@ -2249,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F34" s="1">
         <v>44</v>
@@ -2269,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F35" s="1">
         <v>17</v>
@@ -2289,7 +2295,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F36" s="1">
         <v>46</v>
@@ -2309,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>84</v>
@@ -2318,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>83</v>
@@ -2335,13 +2341,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F38" s="1">
         <v>47</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>85</v>
@@ -2358,13 +2364,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1">
         <v>72</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2378,16 +2384,16 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F40" s="1">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2401,13 +2407,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F41" s="1">
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>87</v>
@@ -2424,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F42" s="1">
         <v>48</v>
@@ -2444,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F43" s="1">
         <v>49</v>
@@ -2464,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F44" s="1">
         <v>50</v>
@@ -2504,7 +2510,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2518,16 +2524,16 @@
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F47" s="1">
         <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2541,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F48" s="1">
         <v>52</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2561,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F49" s="1">
         <v>24</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2581,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F50" s="1">
         <v>26</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2604,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F51" s="1">
         <v>53</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2624,16 +2630,16 @@
         <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F52" s="1">
         <v>51</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2647,13 +2653,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F53" s="1">
         <v>55</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2667,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F54" s="1">
         <v>27</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2690,13 +2696,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F55" s="1">
         <v>60</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2710,16 +2716,16 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F56" s="1">
         <v>28</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2733,13 +2739,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F57" s="1">
         <v>40</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2753,13 +2759,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F58" s="1">
         <v>41</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2773,13 +2779,13 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F59" s="1">
         <v>45</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2793,16 +2799,16 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F60" s="1">
         <v>42</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2816,13 +2822,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F61" s="1">
         <v>56</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2836,16 +2842,16 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F62" s="1">
         <v>29</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2859,13 +2865,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F63" s="1">
         <v>73</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2879,13 +2885,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F64" s="1">
         <v>31</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2899,13 +2905,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F65" s="1">
         <v>62</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2922,7 +2928,7 @@
         <v>32</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2939,7 +2945,7 @@
         <v>33</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2957,7 +2963,7 @@
         <v>34</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2971,13 +2977,13 @@
         <v>9</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1">
         <v>35</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2991,13 +2997,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F70" s="1">
         <v>65</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3014,7 +3020,7 @@
         <v>36</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3028,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F72" s="1">
         <v>37</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3048,13 +3054,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,7 +3077,7 @@
         <v>68</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3088,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3105,7 +3111,7 @@
         <v>70</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3122,7 +3128,7 @@
         <v>71</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3139,7 +3145,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3156,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3173,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3190,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3207,7 +3213,7 @@
         <v>78</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,7 +3230,7 @@
         <v>79</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3258,10 +3264,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3286,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3300,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3314,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1">
         <v>54</v>
@@ -3328,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1">
         <v>54</v>
@@ -3343,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E7" s="11">
         <v>54</v>
@@ -3358,7 +3364,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E8" s="11">
         <v>54</v>
@@ -3373,7 +3379,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E9" s="11">
         <v>54</v>
@@ -3388,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E10" s="11">
         <v>54</v>
@@ -3403,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E11" s="11">
         <v>54</v>
@@ -3418,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" s="11">
         <v>54</v>
@@ -3452,66 +3458,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3521,29 +3527,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE2082-BD64-9945-9BBD-C694779D664B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6" t="b">
         <v>0</v>
@@ -3551,7 +3557,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6" t="b">
         <v>0</v>
@@ -3559,7 +3565,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6" t="b">
         <v>0</v>
@@ -3567,7 +3573,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6" t="b">
         <v>0</v>
@@ -3575,23 +3581,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="6" t="b">
         <v>0</v>
@@ -3599,7 +3605,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="6" t="b">
         <v>0</v>
@@ -3607,7 +3613,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="b">
         <v>0</v>
@@ -3615,7 +3621,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B11" s="6" t="b">
         <v>0</v>
@@ -3623,23 +3629,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3647,7 +3653,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3655,7 +3661,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3663,7 +3669,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3679,17 +3685,25 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3703,7 +3717,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3749,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3757,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3765,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3797,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3901,7 +3915,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3925,7 +3939,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3933,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3949,7 +3963,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3957,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3981,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4061,7 +4075,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4133,7 +4147,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4141,7 +4155,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4149,7 +4163,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4157,7 +4171,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4165,7 +4179,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4173,7 +4187,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4181,7 +4195,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4189,7 +4203,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4197,7 +4211,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4205,7 +4219,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4213,7 +4227,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4221,7 +4235,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4229,7 +4243,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4237,7 +4251,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4245,7 +4259,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4253,7 +4267,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4261,7 +4275,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4269,7 +4283,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4277,7 +4291,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4285,7 +4299,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4293,7 +4307,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4301,7 +4315,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4309,7 +4323,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4317,7 +4331,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4325,7 +4339,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4333,7 +4347,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4341,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4349,7 +4363,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4357,7 +4371,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A93A11F-3F89-E843-B6B5-8D38F22EC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87374DC6-484C-2F41-B68C-54B60B79D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t>我爬上門上方的天花板。天花板上是一個很狹小的空間。我找到了一個木製的「方塊」。隨後，我下來至密室中央。（獲得「方塊」）</t>
   </si>
   <si>
-    <t>我已經爬上門上方的天花板。在裡面找到一個方塊，沒有其他東西了。</t>
-  </si>
-  <si>
     <t>我爬上天花板。我在桌上。桌子在門前。門前天花板已開啟。第一次。</t>
   </si>
   <si>
@@ -934,10 +931,13 @@
     <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。「他」盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「他」）</t>
   </si>
   <si>
-    <t>AskGot || MePosition != "InterrogationRoom"</t>
-  </si>
-  <si>
     <t>我開門。有獲得「問」。我不在審訊室。</t>
+  </si>
+  <si>
+    <t>AskGot &amp;&amp; MePosition != "InterrogationRoom"</t>
+  </si>
+  <si>
+    <t>我已經爬上門上方的天花板。在裡面找到一個方塊，沒有其他東西了。隨後，我下來至密室中央。</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="C6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1535,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>75</v>
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>61</v>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1598,16 +1598,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1621,13 +1621,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1650,10 +1650,10 @@
         <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1667,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1">
         <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1687,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
@@ -1719,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1736,19 +1736,19 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1762,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1782,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1">
         <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1802,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>64</v>
@@ -1825,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -1845,13 +1845,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1">
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1871,16 +1871,16 @@
         <v>296</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1894,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1">
         <v>63</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -1923,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>65</v>
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -1960,13 +1960,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>67</v>
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="1">
         <v>13</v>
@@ -2003,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -2012,10 +2012,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2029,16 +2029,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2052,13 +2052,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" s="1">
         <v>59</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2072,13 +2072,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="1">
         <v>11</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2092,13 +2092,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" s="1">
         <v>66</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2112,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1">
         <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2132,13 +2132,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="1">
         <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2152,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="1">
         <v>44</v>
@@ -2172,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="1">
         <v>17</v>
@@ -2192,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" s="1">
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>74</v>
@@ -2215,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F32" s="1">
         <v>40</v>
@@ -2235,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" s="1">
         <v>41</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="1">
         <v>44</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F35" s="1">
         <v>17</v>
@@ -2295,7 +2295,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="1">
         <v>46</v>
@@ -2315,19 +2315,19 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1">
         <v>18</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2341,16 +2341,16 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" s="1">
         <v>47</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2364,13 +2364,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="1">
         <v>72</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2384,16 +2384,16 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="1">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2407,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="1">
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2430,13 +2430,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="1">
         <v>48</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2450,13 +2450,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" s="1">
         <v>49</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2470,13 +2470,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F44" s="1">
         <v>50</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2510,7 +2510,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2524,16 +2524,16 @@
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" s="1">
         <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2547,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F48" s="1">
         <v>52</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="1">
         <v>24</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2587,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" s="1">
         <v>26</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F51" s="1">
         <v>53</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2630,16 +2630,16 @@
         <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" s="1">
         <v>51</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2653,13 +2653,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="1">
         <v>55</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2673,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F54" s="1">
         <v>27</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2696,13 +2696,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F55" s="1">
         <v>60</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2716,16 +2716,16 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" s="1">
         <v>28</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2739,13 +2739,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F57" s="1">
         <v>40</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2759,13 +2759,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F58" s="1">
         <v>41</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2779,13 +2779,13 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F59" s="1">
         <v>45</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2799,16 +2799,16 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F60" s="1">
         <v>42</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2822,13 +2822,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F61" s="1">
         <v>56</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2842,16 +2842,16 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F62" s="1">
         <v>29</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2865,13 +2865,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="1">
         <v>73</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2885,13 +2885,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F64" s="1">
         <v>31</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2905,13 +2905,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" s="1">
         <v>62</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2928,7 +2928,7 @@
         <v>32</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,7 +2945,7 @@
         <v>33</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2963,7 +2963,7 @@
         <v>34</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2977,13 +2977,13 @@
         <v>9</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1">
         <v>35</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2997,13 +2997,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1">
         <v>65</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>36</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3034,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F72" s="1">
         <v>37</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3054,13 +3054,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3077,7 +3077,7 @@
         <v>68</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,7 +3111,7 @@
         <v>70</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3128,7 +3128,7 @@
         <v>71</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,7 +3145,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3179,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>78</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>79</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3264,10 +3264,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3292,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3306,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3320,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1">
         <v>54</v>
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1">
         <v>54</v>
@@ -3349,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="11">
         <v>54</v>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="11">
         <v>54</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="11">
         <v>54</v>
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="11">
         <v>54</v>
@@ -3409,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="11">
         <v>54</v>
@@ -3424,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="11">
         <v>54</v>
@@ -3458,66 +3458,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
         <v>243</v>
-      </c>
-      <c r="B8" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3541,15 +3541,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="b">
         <v>0</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="6" t="b">
         <v>0</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="6" t="b">
         <v>0</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6" t="b">
         <v>0</v>
@@ -3581,23 +3581,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="6" t="b">
         <v>0</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="6" t="b">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6" t="b">
         <v>0</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="6" t="b">
         <v>0</v>
@@ -3629,23 +3629,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3685,15 +3685,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="6" t="b">
         <v>0</v>
@@ -3716,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3763,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3771,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3811,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3915,7 +3915,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3947,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3995,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4075,7 +4075,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4115,7 +4115,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4123,7 +4123,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4163,7 +4163,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4179,7 +4179,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4187,7 +4187,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4203,7 +4203,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4211,7 +4211,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4219,7 +4219,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4227,7 +4227,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4243,7 +4243,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4251,7 +4251,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4267,7 +4267,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4275,7 +4275,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4291,7 +4291,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4299,7 +4299,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4315,7 +4315,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4323,7 +4323,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4331,7 +4331,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4339,7 +4339,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87374DC6-484C-2F41-B68C-54B60B79D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950747-D15A-6F4F-BCF0-3B6658C182BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="300">
   <si>
     <t>我</t>
   </si>
@@ -541,12 +541,6 @@
   </si>
   <si>
     <t>!AskGot</t>
-  </si>
-  <si>
-    <t>TheEnd = true;</t>
-  </si>
-  <si>
-    <t>TheEnd</t>
   </si>
   <si>
     <t>TableOpen</t>
@@ -938,6 +932,18 @@
   </si>
   <si>
     <t>我已經爬上門上方的天花板。在裡面找到一個方塊，沒有其他東西了。隨後，我下來至密室中央。</t>
+  </si>
+  <si>
+    <t>EndState</t>
+  </si>
+  <si>
+    <t>[null, "Bad", "Good"]</t>
+  </si>
+  <si>
+    <t>EndState = "Good";</t>
+  </si>
+  <si>
+    <t>EndState = "Bad";</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1501,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>93</v>
@@ -1762,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -1782,13 +1788,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1">
         <v>61</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1851,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1868,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1877,10 +1883,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1894,13 +1900,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1">
         <v>63</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1914,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -1923,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>65</v>
@@ -1940,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -1960,13 +1966,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>67</v>
@@ -1983,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F21" s="1">
         <v>13</v>
@@ -2003,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -2012,10 +2018,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2029,16 +2035,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F23" s="1">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2052,13 +2058,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F24" s="1">
         <v>59</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2072,13 +2078,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F25" s="1">
         <v>11</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2092,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F26" s="1">
         <v>66</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2112,13 +2118,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F27" s="1">
         <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2132,13 +2138,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1">
         <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2152,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F29" s="1">
         <v>44</v>
@@ -2172,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F30" s="1">
         <v>17</v>
@@ -2192,13 +2198,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F31" s="1">
         <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>74</v>
@@ -2215,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F32" s="1">
         <v>40</v>
@@ -2235,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F33" s="1">
         <v>41</v>
@@ -2255,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" s="1">
         <v>44</v>
@@ -2275,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F35" s="1">
         <v>17</v>
@@ -2295,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F36" s="1">
         <v>46</v>
@@ -2315,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>83</v>
@@ -2324,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>82</v>
@@ -2341,13 +2347,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F38" s="1">
         <v>47</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
@@ -2364,13 +2370,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F39" s="1">
         <v>72</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2384,13 +2390,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F40" s="1">
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>118</v>
@@ -2407,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F41" s="1">
         <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>86</v>
@@ -2430,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F42" s="1">
         <v>48</v>
@@ -2450,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F43" s="1">
         <v>49</v>
@@ -2470,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F44" s="1">
         <v>50</v>
@@ -2524,13 +2530,13 @@
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F47" s="1">
         <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>100</v>
@@ -2547,7 +2553,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F48" s="1">
         <v>52</v>
@@ -2567,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F49" s="1">
         <v>24</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2587,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F50" s="1">
         <v>26</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>102</v>
@@ -2610,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F51" s="1">
         <v>53</v>
@@ -2630,13 +2636,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F52" s="1">
         <v>51</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>106</v>
@@ -2653,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F53" s="1">
         <v>55</v>
@@ -2673,16 +2679,16 @@
         <v>3</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F54" s="1">
         <v>27</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2696,13 +2702,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F55" s="1">
         <v>60</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2716,13 +2722,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F56" s="1">
         <v>28</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>108</v>
@@ -2739,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F57" s="1">
         <v>40</v>
@@ -2759,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F58" s="1">
         <v>41</v>
@@ -2779,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F59" s="1">
         <v>45</v>
@@ -2799,13 +2805,13 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F60" s="1">
         <v>42</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>114</v>
@@ -2822,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F61" s="1">
         <v>56</v>
@@ -2842,13 +2848,13 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F62" s="1">
         <v>29</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>115</v>
@@ -2865,13 +2871,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F63" s="1">
         <v>73</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2885,13 +2891,13 @@
         <v>4</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F64" s="1">
         <v>31</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2905,13 +2911,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F65" s="1">
         <v>62</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2977,13 +2983,13 @@
         <v>9</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F69" s="1">
         <v>35</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2997,13 +3003,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F70" s="1">
         <v>65</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3034,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F72" s="1">
         <v>37</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3054,13 +3060,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3077,7 +3083,7 @@
         <v>68</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3100,7 @@
         <v>69</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,7 +3117,7 @@
         <v>70</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3128,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,7 +3151,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,7 +3168,7 @@
         <v>75</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3179,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3196,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3213,7 +3219,7 @@
         <v>78</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,7 +3236,7 @@
         <v>79</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +3273,7 @@
         <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3292,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3306,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3320,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1">
         <v>54</v>
@@ -3334,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1">
         <v>54</v>
@@ -3349,7 +3355,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="11">
         <v>54</v>
@@ -3364,7 +3370,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="11">
         <v>54</v>
@@ -3379,7 +3385,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" s="11">
         <v>54</v>
@@ -3394,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="11">
         <v>54</v>
@@ -3409,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="11">
         <v>54</v>
@@ -3424,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="11">
         <v>54</v>
@@ -3444,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3482,42 +3488,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3544,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3613,15 +3627,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="6" t="b">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="b">
         <v>0</v>
@@ -3629,23 +3643,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3653,7 +3667,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3661,7 +3675,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3669,7 +3683,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3677,7 +3691,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3685,7 +3699,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>160</v>
@@ -3693,7 +3707,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -3701,7 +3715,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="6" t="b">
         <v>0</v>
@@ -3716,7 +3730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3915,7 +3929,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3939,7 +3953,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3947,7 +3961,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4075,7 +4089,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4115,7 +4129,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4147,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4163,7 +4177,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4211,7 +4225,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4219,7 +4233,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4227,7 +4241,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4235,7 +4249,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4243,7 +4257,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4251,7 +4265,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4259,7 +4273,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4267,7 +4281,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4275,7 +4289,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4283,7 +4297,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4291,7 +4305,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4299,7 +4313,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4307,7 +4321,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4315,7 +4329,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4323,7 +4337,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4331,7 +4345,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4339,7 +4353,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4347,7 +4361,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4355,7 +4369,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4363,7 +4377,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4371,7 +4385,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08950747-D15A-6F4F-BCF0-3B6658C182BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BDEC24-D60A-3F44-84D1-9F5B04311BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="302">
   <si>
     <t>我</t>
   </si>
@@ -944,6 +944,12 @@
   </si>
   <si>
     <t>EndState = "Bad";</t>
+  </si>
+  <si>
+    <t>門已經被開啟。</t>
+  </si>
+  <si>
+    <t>我開門。門已被他開啟。</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,22 +1923,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1946,36 +1946,39 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F19" s="1">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F20" s="1">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1989,42 +1992,39 @@
         <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>13</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="1">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2035,16 +2035,19 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>183</v>
+        <v>224</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="1">
-        <v>15</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2058,13 +2061,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2072,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2098,13 +2104,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F26" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2115,16 +2121,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F27" s="1">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2138,13 +2144,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2152,22 +2158,22 @@
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="F29" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2178,13 +2184,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F30" s="1">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2198,16 +2204,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F31" s="1">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2220,14 +2223,17 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>230</v>
+      <c r="D32" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F32" s="1">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2241,36 +2247,36 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>228</v>
+      <c r="D34" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F34" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -2281,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F35" s="1">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2301,13 +2307,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F36" s="1">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2321,19 +2327,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="F37" s="1">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2347,19 +2347,22 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F38" s="1">
-        <v>47</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>289</v>
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2370,16 +2373,19 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="F39" s="1">
-        <v>72</v>
+        <v>47</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -2390,39 +2396,36 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="1">
+        <v>72</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>30</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="1">
-        <v>20</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2436,13 +2439,16 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F42" s="1">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2453,16 +2459,16 @@
         <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2475,31 +2481,34 @@
       <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="1">
+        <v>49</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>50</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1">
-        <v>19</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2510,36 +2519,30 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
       <c r="B47" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>12</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="F47" s="1">
-        <v>25</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2553,33 +2556,36 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F48" s="1">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1">
         <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F49" s="1">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2593,16 +2599,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F50" s="1">
-        <v>26</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2616,39 +2619,39 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F51" s="1">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>12</v>
       </c>
       <c r="B52" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F52" s="1">
-        <v>51</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>12</v>
       </c>
@@ -2659,13 +2662,16 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53" s="1">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2673,22 +2679,19 @@
         <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F54" s="1">
-        <v>27</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2702,36 +2705,36 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" s="1">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>12</v>
       </c>
       <c r="B56" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F56" s="1">
-        <v>28</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2745,13 +2748,16 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F57" s="1">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2765,33 +2771,33 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F58" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F59" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2805,19 +2811,16 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F60" s="1">
-        <v>42</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -2828,13 +2831,16 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F61" s="1">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2848,19 +2854,16 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F62" s="1">
-        <v>29</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -2871,13 +2874,16 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="F63" s="1">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2885,19 +2891,19 @@
         <v>12</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F64" s="1">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2911,16 +2917,16 @@
         <v>4</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F65" s="1">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>12</v>
       </c>
@@ -2928,13 +2934,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F66" s="1">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,17 +2971,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>10</v>
+      </c>
       <c r="F68" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>12</v>
       </c>
@@ -2980,16 +2988,14 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>9</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>206</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D69" s="9"/>
       <c r="F69" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3002,17 +3008,17 @@
       <c r="C70" s="1">
         <v>9</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>190</v>
+      <c r="D70" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="F70" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>12</v>
       </c>
@@ -3020,16 +3026,19 @@
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F71" s="1">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -3037,16 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3060,35 +3066,38 @@
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="1">
+        <v>37</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F74" s="1">
         <v>67</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1">
-        <v>10</v>
-      </c>
-      <c r="F74" s="1">
-        <v>68</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
@@ -3097,100 +3106,100 @@
         <v>10</v>
       </c>
       <c r="F75" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
       </c>
       <c r="C76" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1">
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1">
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B81" s="1">
         <v>8</v>
@@ -3199,32 +3208,32 @@
         <v>4</v>
       </c>
       <c r="F81" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B83" s="1">
         <v>11</v>
@@ -3233,9 +3242,26 @@
         <v>2</v>
       </c>
       <c r="F83" s="1">
+        <v>78</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
         <v>79</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3544,7 +3570,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4388,6 +4414,14 @@
         <v>252</v>
       </c>
     </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BDEC24-D60A-3F44-84D1-9F5B04311BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C687D-619A-FC47-AACD-F42105E99FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -928,9 +928,6 @@
     <t>我開門。有獲得「問」。我不在審訊室。</t>
   </si>
   <si>
-    <t>AskGot &amp;&amp; MePosition != "InterrogationRoom"</t>
-  </si>
-  <si>
     <t>我已經爬上門上方的天花板。在裡面找到一個方塊，沒有其他東西了。隨後，我下來至密室中央。</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>我開門。門已被他開啟。</t>
+  </si>
+  <si>
+    <t>AskGot &amp;&amp; MePosition != "InterrogationRoom" &amp;&amp; !DoorOpen</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1863,13 +1863,13 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1932,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2422,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>118</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" t="s">
         <v>296</v>
-      </c>
-      <c r="B9" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
@@ -4155,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C687D-619A-FC47-AACD-F42105E99FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008169C-80E4-5D48-B7DC-8A3CC0C210F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,6 @@
     <t>黑衣人無法碰觸到審訊室的天花板。他無法爬上。</t>
   </si>
   <si>
-    <t>我爬上黑衣人，好像站在巨人的肩膀上。</t>
-  </si>
-  <si>
     <t>不要吧。他太重了。我會骨折。</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>AskGot &amp;&amp; MePosition != "InterrogationRoom" &amp;&amp; !DoorOpen</t>
+  </si>
+  <si>
+    <t>我爬上黑衣人，讓我想起以前騎馬打仗。隨後我下來到地面。</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>93</v>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1892,7 +1892,7 @@
         <v>194</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1926,13 +1926,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="1">
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
@@ -2184,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="1">
         <v>44</v>
@@ -2204,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="1">
         <v>17</v>
@@ -2224,13 +2224,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="1">
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>74</v>
@@ -2247,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F33" s="1">
         <v>40</v>
@@ -2267,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="1">
         <v>41</v>
@@ -2287,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="1">
         <v>44</v>
@@ -2307,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F37" s="1">
         <v>46</v>
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>83</v>
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>82</v>
@@ -2373,13 +2373,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="1">
         <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
@@ -2402,7 +2402,7 @@
         <v>72</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2416,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="1">
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>118</v>
@@ -2439,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F42" s="1">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>86</v>
@@ -2462,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F43" s="1">
         <v>48</v>
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F44" s="1">
         <v>49</v>
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F45" s="1">
         <v>50</v>
@@ -2556,13 +2556,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F48" s="1">
         <v>25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>100</v>
@@ -2579,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="1">
         <v>52</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F50" s="1">
         <v>24</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" s="1">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>102</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F52" s="1">
         <v>53</v>
@@ -2662,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53" s="1">
         <v>51</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>106</v>
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F54" s="1">
         <v>55</v>
@@ -2705,16 +2705,16 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F55" s="1">
         <v>27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2728,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56" s="1">
         <v>60</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2748,13 +2748,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F57" s="1">
         <v>28</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>108</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F58" s="1">
         <v>40</v>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F59" s="1">
         <v>41</v>
@@ -2811,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F60" s="1">
         <v>45</v>
@@ -2831,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F61" s="1">
         <v>42</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>114</v>
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F62" s="1">
         <v>56</v>
@@ -2874,13 +2874,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F63" s="1">
         <v>29</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>115</v>
@@ -2903,7 +2903,7 @@
         <v>73</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>31</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>68</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>69</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>70</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>71</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3194,7 +3194,7 @@
         <v>75</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>76</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
         <v>78</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>79</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3338,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3517,7 +3517,7 @@
         <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3525,12 +3525,12 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
         <v>209</v>
@@ -3546,18 +3546,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
         <v>295</v>
-      </c>
-      <c r="B9" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
@@ -3672,7 +3672,7 @@
         <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3680,12 +3680,12 @@
         <v>193</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>160</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3955,7 +3955,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3979,7 +3979,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4115,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4203,7 +4203,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4379,7 +4379,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4387,7 +4387,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4403,7 +4403,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008169C-80E4-5D48-B7DC-8A3CC0C210F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B1C59-33DC-1A42-97B5-B71A1505448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -706,9 +706,6 @@
     <t>我問黑衣人：「小華在哪裡？」黑衣人眼神呆滯了一下，並回答：「吊在樹上。」</t>
   </si>
   <si>
-    <t>黑衣人問我：「小華是誰？」黑衣人回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。小華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
-  </si>
-  <si>
     <t>黑衣人檢視門。黑衣人不在審訊室。</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>我爬上黑衣人，讓我想起以前騎馬打仗。隨後我下來到地面。</t>
+  </si>
+  <si>
+    <t>黑衣人問我：「小華是誰？」我回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。小華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>93</v>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1892,7 +1892,7 @@
         <v>194</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1926,13 +1926,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="1">
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
@@ -2184,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="1">
         <v>44</v>
@@ -2204,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="1">
         <v>17</v>
@@ -2224,13 +2224,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="1">
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>74</v>
@@ -2247,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1">
         <v>40</v>
@@ -2267,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="1">
         <v>41</v>
@@ -2287,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="1">
         <v>44</v>
@@ -2307,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F37" s="1">
         <v>46</v>
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>83</v>
@@ -2356,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>82</v>
@@ -2373,13 +2373,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F39" s="1">
         <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
@@ -2402,7 +2402,7 @@
         <v>72</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2416,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F41" s="1">
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>118</v>
@@ -2439,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" s="1">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>86</v>
@@ -2462,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43" s="1">
         <v>48</v>
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" s="1">
         <v>49</v>
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="1">
         <v>50</v>
@@ -2556,13 +2556,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F48" s="1">
         <v>25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>100</v>
@@ -2579,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F49" s="1">
         <v>52</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F50" s="1">
         <v>24</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51" s="1">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>102</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F52" s="1">
         <v>53</v>
@@ -2662,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" s="1">
         <v>51</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>106</v>
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F54" s="1">
         <v>55</v>
@@ -2705,16 +2705,16 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F55" s="1">
         <v>27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2728,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F56" s="1">
         <v>60</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2748,13 +2748,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F57" s="1">
         <v>28</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>108</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F58" s="1">
         <v>40</v>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F59" s="1">
         <v>41</v>
@@ -2811,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="1">
         <v>45</v>
@@ -2831,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F61" s="1">
         <v>42</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>114</v>
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" s="1">
         <v>56</v>
@@ -2874,13 +2874,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F63" s="1">
         <v>29</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>115</v>
@@ -2903,7 +2903,7 @@
         <v>73</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>31</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>68</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
         <v>69</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>70</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>71</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3194,7 +3194,7 @@
         <v>75</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3211,7 +3211,7 @@
         <v>76</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
         <v>78</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>79</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3324,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3338,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3517,7 +3517,7 @@
         <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3525,12 +3525,12 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>209</v>
@@ -3546,18 +3546,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
         <v>239</v>
-      </c>
-      <c r="B8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
         <v>294</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
@@ -3672,7 +3672,7 @@
         <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3680,12 +3680,12 @@
         <v>193</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>160</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3955,7 +3955,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4115,7 +4115,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4203,7 +4203,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4403,7 +4403,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B1C59-33DC-1A42-97B5-B71A1505448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82FA4-91BC-CB44-803B-80C0B1997262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
@@ -916,9 +916,6 @@
     <t>MeInspectDoor &amp;&amp; (TablePosition != "Door" || OpenGot) &amp;&amp; (CubePosition != "Door" || AskGot)</t>
   </si>
   <si>
-    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。「他」盯著我看，卻不發一語。這時密室的門自動關上。我在困在這裡了。（獲得「他」）</t>
-  </si>
-  <si>
     <t>我開門。有獲得「問」。我不在審訊室。</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>黑衣人問我：「小華是誰？」我回答：「小木屋。」這時我們相擁而泣，我找到了我的兒時玩伴。小華是我們小時候的秘密基地。沒想到會在這裡見面，是誰把我們安排在這個地方？</t>
+  </si>
+  <si>
+    <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。「他」盯著我看，卻不發一語。這時密室的門自動關上。我被困在這裡了。（獲得「他」）</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1892,7 +1892,7 @@
         <v>194</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2422,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>118</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
         <v>293</v>
-      </c>
-      <c r="B9" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3955,7 +3955,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C82FA4-91BC-CB44-803B-80C0B1997262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED91E80-F661-C049-B5AD-514028F26C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="6" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="StateTable" sheetId="4" r:id="rId4"/>
     <sheet name="StateInitTable" sheetId="5" r:id="rId5"/>
     <sheet name="DialogueTable" sheetId="3" r:id="rId6"/>
+    <sheet name="AudioTable" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3756,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4425,4 +4426,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92741F74-2770-D744-B6A2-0736CF77BD50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/table/Level1.xlsx
+++ b/table/Level1.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jia-hojian/Documents/WordPrisonHtml/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED91E80-F661-C049-B5AD-514028F26C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E68B62-A406-0747-AA41-B8955DD5E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="6" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{64EF1436-D63C-5F48-BC1D-56CAA298BD74}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTable" sheetId="1" r:id="rId1"/>
     <sheet name="SentenceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="FallbackTable" sheetId="6" r:id="rId3"/>
-    <sheet name="StateTable" sheetId="4" r:id="rId4"/>
-    <sheet name="StateInitTable" sheetId="5" r:id="rId5"/>
-    <sheet name="DialogueTable" sheetId="3" r:id="rId6"/>
-    <sheet name="AudioTable" sheetId="7" r:id="rId7"/>
+    <sheet name="HintTable" sheetId="8" r:id="rId3"/>
+    <sheet name="FallbackTable" sheetId="6" r:id="rId4"/>
+    <sheet name="StateTable" sheetId="4" r:id="rId5"/>
+    <sheet name="StateInitTable" sheetId="5" r:id="rId6"/>
+    <sheet name="DialogueTable" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="350">
   <si>
     <t>我</t>
   </si>
@@ -624,9 +625,6 @@
   </si>
   <si>
     <t>HePosition</t>
-  </si>
-  <si>
-    <t>MePosition = "InterrogationRoom";</t>
   </si>
   <si>
     <t>MePosition != "InterrogationRoom"</t>
@@ -951,6 +949,154 @@
   </si>
   <si>
     <t>我開啟大門。我來到一間審訊室。眼前坐著一個高大的黑衣人。「他」盯著我看，卻不發一語。這時密室的門自動關上。我被困在這裡了。（獲得「他」）</t>
+  </si>
+  <si>
+    <t>HintID</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>主角在檢視門時，回想到有人曾在桌子底下寫字。</t>
+  </si>
+  <si>
+    <t>密室內的東西還沒有全部檢視完。</t>
+  </si>
+  <si>
+    <t>現在有「密室」、「我」、「檢視」三個詞卡。能夠組成什麼句子？</t>
+  </si>
+  <si>
+    <t>現在有「開」這個詞卡。試著跟其他名詞組合看看。</t>
+  </si>
+  <si>
+    <t>目前有「爬上」。試著跟其他名詞組合看看。</t>
+  </si>
+  <si>
+    <t>再到處檢視看看。</t>
+  </si>
+  <si>
+    <t>天花板是由木板拼湊而成。也許能夠滑開？</t>
+  </si>
+  <si>
+    <t>門上方的天花板被掀開了。上面有什麼？</t>
+  </si>
+  <si>
+    <t>主角面前有一個人。能否跟他交談一下？</t>
+  </si>
+  <si>
+    <t>主角問了他問題。他有沒有想問主角的問題？</t>
+  </si>
+  <si>
+    <t>主角開不了門。還有誰可能有辦法呢？</t>
+  </si>
+  <si>
+    <t>現在主角旁邊有一個高大個。也許他能碰觸到那個很高的地方？</t>
+  </si>
+  <si>
+    <t>角落上方的天花板已經被掀開。上面有什麼？角落天花板對主角而言太高，有誰比較高？</t>
+  </si>
+  <si>
+    <t>他在天花板上。原本主角爬不上天花板，也許現在可以倚靠他？</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>!MoveToGot</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>!OpenGot</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>!HasClimbTable</t>
+  </si>
+  <si>
+    <t>MeInspectCeiling</t>
+  </si>
+  <si>
+    <t>MeInspectCeiling = true;</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>!MeInspectCeiling &amp;&amp; !DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>!DoorCeilingOpen</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>!CubeGot</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>好像所有可以做的事情都做了。芝麻開門吧？</t>
+  </si>
+  <si>
+    <t>HeGot</t>
+  </si>
+  <si>
+    <t>MePosition = "InterrogationRoom";
+HeGot = true;</t>
+  </si>
+  <si>
+    <t>!HeGot</t>
+  </si>
+  <si>
+    <t>!CornerCeilingOpen</t>
+  </si>
+  <si>
+    <t>HePosition != "Ceiling"</t>
+  </si>
+  <si>
+    <t>MePosition != "Ceiling"</t>
+  </si>
+  <si>
+    <t>NextHintID</t>
+  </si>
+  <si>
+    <t>桌子形狀很像「开」字，跟什麼字可以組成另一個字？把桌子移至那裡後，再檢視一下那裡。</t>
+  </si>
+  <si>
+    <t>剛才獲得了方塊，檢視一下。或許有什麼靈感？</t>
+  </si>
+  <si>
+    <t>MeInspectCube</t>
+  </si>
+  <si>
+    <t>MeInspectCube = true;</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>!MeInspectCube &amp;&amp; !AskGot</t>
+  </si>
+  <si>
+    <t>方塊的形狀很像「口」。跟什麼字組合起來會變成另一個字？把方塊移至那裡後，再檢視一下那裡。</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1514,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C427CC-7D26-974C-B4BB-AFA7E1DA2CDA}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="D35" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>93</v>
@@ -1775,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -1864,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>60</v>
@@ -1881,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>96</v>
@@ -1889,11 +2035,11 @@
       <c r="F16" s="1">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
+      <c r="G16" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1927,13 +2073,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="1">
         <v>80</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2036,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
@@ -2105,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="1">
         <v>11</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2131,7 +2277,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2145,13 +2291,16 @@
         <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="1">
         <v>16</v>
       </c>
+      <c r="G28" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="H28" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2171,7 +2320,7 @@
         <v>64</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2185,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F30" s="1">
         <v>44</v>
@@ -2205,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="1">
         <v>17</v>
@@ -2225,13 +2374,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32" s="1">
         <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>74</v>
@@ -2248,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F33" s="1">
         <v>40</v>
@@ -2268,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F34" s="1">
         <v>41</v>
@@ -2288,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F35" s="1">
         <v>44</v>
@@ -2308,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -2328,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F37" s="1">
         <v>46</v>
@@ -2348,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>83</v>
@@ -2357,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>82</v>
@@ -2374,13 +2523,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F39" s="1">
         <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
@@ -2403,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2417,13 +2566,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F41" s="1">
         <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>118</v>
@@ -2440,13 +2589,13 @@
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F42" s="1">
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>86</v>
@@ -2463,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F43" s="1">
         <v>48</v>
@@ -2483,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="1">
         <v>49</v>
@@ -2503,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F45" s="1">
         <v>50</v>
@@ -2525,6 +2674,9 @@
       <c r="F46" s="1">
         <v>19</v>
       </c>
+      <c r="G46" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="H46" s="5" t="s">
         <v>92</v>
       </c>
@@ -2557,13 +2709,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" s="1">
         <v>25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>100</v>
@@ -2580,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="1">
         <v>52</v>
@@ -2600,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F50" s="1">
         <v>24</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2620,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" s="1">
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>102</v>
@@ -2643,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="1">
         <v>53</v>
@@ -2663,13 +2815,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F53" s="1">
         <v>51</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>106</v>
@@ -2686,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" s="1">
         <v>55</v>
@@ -2706,16 +2858,16 @@
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="1">
         <v>27</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2729,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F56" s="1">
         <v>60</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2749,13 +2901,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="1">
         <v>28</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>108</v>
@@ -2772,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F58" s="1">
         <v>40</v>
@@ -2792,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F59" s="1">
         <v>41</v>
@@ -2812,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="1">
         <v>45</v>
@@ -2832,13 +2984,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F61" s="1">
         <v>42</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>114</v>
@@ -2855,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62" s="1">
         <v>56</v>
@@ -2875,13 +3027,13 @@
         <v>9</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" s="1">
         <v>29</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>115</v>
@@ -2904,7 +3056,7 @@
         <v>73</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2918,13 +3070,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F65" s="1">
         <v>31</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3010,13 +3162,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" s="1">
         <v>35</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3036,7 +3188,7 @@
         <v>65</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3067,13 +3219,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" s="1">
         <v>37</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3093,7 +3245,7 @@
         <v>67</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3110,7 +3262,7 @@
         <v>68</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3127,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3144,7 +3296,7 @@
         <v>70</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3161,7 +3313,7 @@
         <v>71</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3178,7 +3330,7 @@
         <v>74</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3195,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,7 +3364,7 @@
         <v>76</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3229,7 +3381,7 @@
         <v>77</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3246,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3263,7 +3415,7 @@
         <v>79</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3272,6 +3424,307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0075191A-E8C2-4E48-AFE1-26F6229AD6F1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="75.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A19" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9A85D4-E0C7-5241-B7ED-7E528C1CA85C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3300,7 +3753,7 @@
         <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1">
         <v>24</v>
@@ -3325,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -3339,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="1">
         <v>24</v>
@@ -3475,7 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69195EF-DD64-AA44-AF50-E5E699117596}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -3518,7 +3971,7 @@
         <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,39 +3979,39 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
         <v>238</v>
-      </c>
-      <c r="B8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3566,12 +4019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE2082-BD64-9945-9BBD-C694779D664B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3654,7 +4107,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
@@ -3673,7 +4126,7 @@
         <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3681,12 +4134,12 @@
         <v>193</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="6" t="b">
         <v>0</v>
@@ -3694,7 +4147,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="6" t="b">
         <v>0</v>
@@ -3702,7 +4155,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="6" t="b">
         <v>0</v>
@@ -3710,7 +4163,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="6" t="b">
         <v>0</v>
@@ -3718,7 +4171,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="6" t="b">
         <v>0</v>
@@ -3726,7 +4179,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>160</v>
@@ -3734,7 +4187,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="6" t="b">
         <v>0</v>
@@ -3745,6 +4198,30 @@
         <v>167</v>
       </c>
       <c r="B21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3753,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D05B44-345F-9147-ABB9-81A87CF8210C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
@@ -3956,7 +4433,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3980,7 +4457,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3988,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4116,7 +4593,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4156,7 +4633,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4204,7 +4681,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4292,7 +4769,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4300,7 +4777,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4308,7 +4785,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4316,7 +4793,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4324,7 +4801,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4332,7 +4809,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4340,7 +4817,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4348,7 +4825,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4356,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4364,7 +4841,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4372,7 +4849,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4380,7 +4857,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4388,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4396,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4404,7 +4881,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4412,7 +4889,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4420,22 +4897,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92741F74-2770-D744-B6A2-0736CF77BD50}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>